--- a/src/assets/mapSource.xlsx
+++ b/src/assets/mapSource.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="B2:Q17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>

--- a/src/assets/mapSource.xlsx
+++ b/src/assets/mapSource.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +447,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+      <selection activeCell="B2" sqref="B2:AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1579,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
@@ -1600,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
@@ -1624,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="4">
         <v>0</v>
@@ -1680,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -1701,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="4">
         <v>0</v>
@@ -1725,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="S13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="4">
         <v>0</v>
@@ -1850,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="4">
         <v>0</v>
@@ -1885,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <v>0</v>
@@ -1906,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -1927,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="S15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="4">
         <v>0</v>
@@ -1963,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="AE15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="4">
         <v>0</v>
@@ -1986,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
@@ -2007,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2028,22 +2024,22 @@
         <v>0</v>
       </c>
       <c r="S16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="4">
         <v>0</v>
@@ -2052,22 +2048,22 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="4">
         <v>0</v>
@@ -2081,19 +2077,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
@@ -2105,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="4">
         <v>0</v>
@@ -2129,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="4">
         <v>0</v>
@@ -2182,19 +2178,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
@@ -2206,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4">
         <v>0</v>
@@ -2230,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="S18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="4">
         <v>0</v>
@@ -2459,16 +2455,16 @@
         <v>0</v>
       </c>
       <c r="AB20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="4">
         <v>0</v>
@@ -2560,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="AB21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="4">
         <v>0</v>
@@ -2598,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
@@ -2634,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="4">
         <v>1</v>
@@ -2664,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="AC22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -2699,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -2735,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="4">
         <v>1</v>
@@ -2765,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="AC23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33">
